--- a/meeting_schedule.xlsx
+++ b/meeting_schedule.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J15:J16"/>
@@ -563,6 +563,600 @@
         </is>
       </c>
       <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A02821</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>測試使用</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5,6,7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A02821</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>測試使用</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A02821</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>測試使用</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>55555</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>55555</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,3,4,5,6,8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A201</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>B102</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
